--- a/abinary.xlsx
+++ b/abinary.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16980" windowHeight="8970"/>
+    <workbookView windowWidth="13785" windowHeight="8130" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -45,10 +46,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -82,7 +83,75 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -96,15 +165,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -112,9 +182,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -127,83 +197,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,13 +224,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -245,187 +246,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -572,46 +573,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -635,7 +601,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -655,17 +651,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -677,10 +678,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -689,16 +690,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -707,119 +708,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -853,9 +854,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -877,24 +875,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -912,9 +892,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1233,7 +1210,7 @@
   <sheetPr/>
   <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
@@ -1254,7 +1231,7 @@
       <c r="F1" s="5"/>
       <c r="G1" s="2"/>
       <c r="H1" s="6"/>
-      <c r="I1" s="24"/>
+      <c r="I1" s="6"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="7">
@@ -1270,180 +1247,180 @@
         <v>0</v>
       </c>
       <c r="G2" s="2"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="24"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="12"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="14"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="13"/>
       <c r="F3" s="7"/>
       <c r="G3" s="2"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="24"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="7"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
       <c r="E4" s="9">
         <v>1</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="12"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="14"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="13"/>
       <c r="F5" s="7"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="7"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
       <c r="E6" s="9">
         <v>1</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="2"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="17"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="16"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="17"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="16"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="12">
+      <c r="A9" s="11">
         <v>6</v>
       </c>
-      <c r="B9" s="18"/>
+      <c r="B9" s="17"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="14">
+      <c r="D9" s="17"/>
+      <c r="E9" s="13">
         <v>0</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>1</v>
       </c>
       <c r="G9" s="2"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="12"/>
+      <c r="A10" s="11"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="14"/>
+      <c r="E10" s="13"/>
       <c r="F10" s="7"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="7"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
       <c r="E11" s="9">
         <v>1</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="24"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="12"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="14"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="13"/>
       <c r="F12" s="7"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="24"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="7"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
       <c r="E13" s="9">
         <v>1</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="24"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="2"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="17"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="16"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="24"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="17"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="16"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="24"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="7">
         <v>5</v>
       </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
       <c r="E16" s="9">
         <v>1</v>
       </c>
@@ -1451,174 +1428,174 @@
         <v>2</v>
       </c>
       <c r="G16" s="2"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="24"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="12"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="14"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="13"/>
       <c r="F17" s="7"/>
       <c r="G17" s="2"/>
-      <c r="H17" s="19"/>
+      <c r="H17" s="6"/>
       <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="12"/>
-      <c r="B18" s="18"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="17"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="14">
+      <c r="D18" s="17"/>
+      <c r="E18" s="13">
         <v>0</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="2"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="11"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="12"/>
+      <c r="A19" s="11"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
-      <c r="E19" s="14"/>
+      <c r="E19" s="13"/>
       <c r="F19" s="7"/>
       <c r="G19" s="2"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="11"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="7"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
       <c r="E20" s="9">
         <v>1</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="2"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="11"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="2"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="17"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="16"/>
       <c r="G21" s="2"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="11"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="17"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="16"/>
       <c r="G22" s="2"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="11"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="12">
+      <c r="A23" s="11">
         <v>4</v>
       </c>
-      <c r="B23" s="18"/>
+      <c r="B23" s="17"/>
       <c r="C23" s="2"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="14">
+      <c r="D23" s="17"/>
+      <c r="E23" s="13">
         <v>0</v>
       </c>
       <c r="F23" s="10" t="s">
         <v>3</v>
       </c>
       <c r="G23" s="2"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="11"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="12"/>
+      <c r="A24" s="11"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="14"/>
+      <c r="E24" s="13"/>
       <c r="F24" s="7"/>
       <c r="G24" s="2"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="11"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="12"/>
-      <c r="B25" s="18"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="17"/>
       <c r="C25" s="2"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="14">
+      <c r="D25" s="17"/>
+      <c r="E25" s="13">
         <v>0</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="2"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="31"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="12"/>
+      <c r="A26" s="11"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
-      <c r="E26" s="14"/>
+      <c r="E26" s="13"/>
       <c r="F26" s="7"/>
       <c r="G26" s="2"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="7"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
       <c r="E27" s="9">
         <v>1</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="2"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="24"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="6"/>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="2"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="17"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="16"/>
       <c r="G28" s="2"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="2"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="17"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="16"/>
       <c r="G29" s="2"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="24"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="7">
         <v>3</v>
       </c>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
       <c r="E30" s="9">
         <v>1</v>
       </c>
@@ -1626,187 +1603,187 @@
         <v>4</v>
       </c>
       <c r="G30" s="2"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="12"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="14"/>
+      <c r="A31" s="11"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="13"/>
       <c r="F31" s="7"/>
       <c r="G31" s="2"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="7"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
       <c r="E32" s="9">
         <v>1</v>
       </c>
       <c r="F32" s="7"/>
       <c r="G32" s="2"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="24"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="12"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="14"/>
+      <c r="A33" s="11"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="13"/>
       <c r="F33" s="7"/>
       <c r="G33" s="2"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="24"/>
-      <c r="J33" s="24"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="12"/>
-      <c r="B34" s="18"/>
+      <c r="A34" s="11"/>
+      <c r="B34" s="17"/>
       <c r="C34" s="2"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="14">
+      <c r="D34" s="17"/>
+      <c r="E34" s="13">
         <v>0</v>
       </c>
       <c r="F34" s="7"/>
       <c r="G34" s="2"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="24"/>
-      <c r="J34" s="24"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="17"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="16"/>
       <c r="G35" s="2"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="24"/>
-      <c r="J35" s="24"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="17"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="16"/>
       <c r="G36" s="2"/>
-      <c r="H36" s="24"/>
-      <c r="I36" s="24"/>
-      <c r="J36" s="24"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="12">
+      <c r="A37" s="11">
         <v>2</v>
       </c>
-      <c r="B37" s="18"/>
+      <c r="B37" s="17"/>
       <c r="C37" s="2"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="14">
+      <c r="D37" s="17"/>
+      <c r="E37" s="13">
         <v>0</v>
       </c>
       <c r="F37" s="10" t="s">
         <v>5</v>
       </c>
       <c r="G37" s="2"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="24"/>
-      <c r="J37" s="24"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="12"/>
+      <c r="A38" s="11"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
-      <c r="E38" s="14"/>
+      <c r="E38" s="13"/>
       <c r="F38" s="7"/>
       <c r="G38" s="2"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="24"/>
-      <c r="J38" s="24"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="7"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
       <c r="E39" s="9">
         <v>1</v>
       </c>
       <c r="F39" s="7"/>
       <c r="G39" s="2"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="24"/>
-      <c r="J39" s="24"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="12"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="14"/>
+      <c r="A40" s="11"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="13"/>
       <c r="F40" s="7"/>
       <c r="G40" s="2"/>
-      <c r="H40" s="24"/>
-      <c r="I40" s="24"/>
-      <c r="J40" s="24"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="12"/>
-      <c r="B41" s="18"/>
+      <c r="A41" s="11"/>
+      <c r="B41" s="17"/>
       <c r="C41" s="2"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="14">
+      <c r="D41" s="17"/>
+      <c r="E41" s="13">
         <v>0</v>
       </c>
       <c r="F41" s="7"/>
       <c r="G41" s="2"/>
-      <c r="H41" s="24"/>
-      <c r="I41" s="24"/>
-      <c r="J41" s="24"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="17"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="16"/>
       <c r="G42" s="2"/>
-      <c r="H42" s="24"/>
-      <c r="I42" s="24"/>
-      <c r="J42" s="24"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="2"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="17"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="16"/>
       <c r="G43" s="2"/>
-      <c r="H43" s="24"/>
-      <c r="I43" s="24"/>
-      <c r="J43" s="24"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="7">
         <v>1</v>
       </c>
-      <c r="B44" s="15"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
       <c r="E44" s="9">
         <v>1</v>
       </c>
@@ -1814,262 +1791,262 @@
         <v>6</v>
       </c>
       <c r="G44" s="2"/>
-      <c r="H44" s="24"/>
-      <c r="I44" s="24"/>
-      <c r="J44" s="24"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="12"/>
-      <c r="B45" s="16"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="14"/>
+      <c r="A45" s="11"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="13"/>
       <c r="F45" s="7"/>
       <c r="G45" s="2"/>
-      <c r="H45" s="24"/>
-      <c r="I45" s="24"/>
-      <c r="J45" s="24"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="12"/>
-      <c r="B46" s="18"/>
+      <c r="A46" s="11"/>
+      <c r="B46" s="17"/>
       <c r="C46" s="2"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="14">
+      <c r="D46" s="17"/>
+      <c r="E46" s="13">
         <v>0</v>
       </c>
       <c r="F46" s="7"/>
       <c r="G46" s="2"/>
-      <c r="H46" s="24"/>
-      <c r="I46" s="24"/>
-      <c r="J46" s="24"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="26"/>
+      <c r="A47" s="19"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="28"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="21"/>
       <c r="G47" s="2"/>
-      <c r="H47" s="24"/>
-      <c r="I47" s="24"/>
-      <c r="J47" s="24"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="12"/>
-      <c r="B48" s="18"/>
+      <c r="A48" s="11"/>
+      <c r="B48" s="17"/>
       <c r="C48" s="2"/>
-      <c r="D48" s="18"/>
-      <c r="E48" s="14">
+      <c r="D48" s="17"/>
+      <c r="E48" s="13">
         <v>0</v>
       </c>
       <c r="F48" s="7"/>
       <c r="G48" s="2"/>
-      <c r="H48" s="24"/>
-      <c r="I48" s="24"/>
-      <c r="J48" s="24"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
-      <c r="E49" s="14"/>
+      <c r="E49" s="13"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
-      <c r="H49" s="24"/>
-      <c r="I49" s="24"/>
-      <c r="J49" s="24"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
-      <c r="E50" s="14"/>
+      <c r="E50" s="13"/>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
-      <c r="H50" s="24"/>
-      <c r="I50" s="24"/>
-      <c r="J50" s="24"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="6"/>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="12">
+      <c r="A51" s="11">
         <v>0</v>
       </c>
-      <c r="B51" s="18"/>
+      <c r="B51" s="17"/>
       <c r="C51" s="2"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="14">
+      <c r="D51" s="17"/>
+      <c r="E51" s="13">
         <v>0</v>
       </c>
-      <c r="F51" s="29" t="s">
+      <c r="F51" s="22" t="s">
         <v>7</v>
       </c>
       <c r="G51" s="2"/>
-      <c r="H51" s="24"/>
-      <c r="I51" s="24"/>
-      <c r="J51" s="24"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="12"/>
+      <c r="A52" s="11"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="12"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="11"/>
       <c r="G52" s="2"/>
-      <c r="H52" s="24"/>
-      <c r="I52" s="24"/>
-      <c r="J52" s="24"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="12"/>
-      <c r="B53" s="18"/>
+      <c r="A53" s="11"/>
+      <c r="B53" s="17"/>
       <c r="C53" s="2"/>
-      <c r="D53" s="18"/>
-      <c r="E53" s="14">
+      <c r="D53" s="17"/>
+      <c r="E53" s="13">
         <v>0</v>
       </c>
-      <c r="F53" s="12"/>
+      <c r="F53" s="11"/>
       <c r="G53" s="2"/>
-      <c r="H53" s="24"/>
-      <c r="I53" s="24"/>
-      <c r="J53" s="24"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="12"/>
+      <c r="A54" s="11"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="12"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="11"/>
       <c r="G54" s="2"/>
-      <c r="H54" s="24"/>
-      <c r="I54" s="24"/>
-      <c r="J54" s="24"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="6"/>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="12"/>
-      <c r="B55" s="18"/>
+      <c r="A55" s="11"/>
+      <c r="B55" s="17"/>
       <c r="C55" s="2"/>
-      <c r="D55" s="18"/>
-      <c r="E55" s="14">
+      <c r="D55" s="17"/>
+      <c r="E55" s="13">
         <v>0</v>
       </c>
-      <c r="F55" s="12"/>
+      <c r="F55" s="11"/>
       <c r="G55" s="2"/>
-      <c r="H55" s="24"/>
-      <c r="I55" s="24"/>
-      <c r="J55" s="24"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="6"/>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
-      <c r="E56" s="14"/>
+      <c r="E56" s="13"/>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
-      <c r="H56" s="24"/>
-      <c r="I56" s="24"/>
-      <c r="J56" s="24"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="6"/>
     </row>
     <row r="57" spans="1:10">
-      <c r="A57" s="24"/>
-      <c r="B57" s="24"/>
-      <c r="C57" s="24"/>
-      <c r="D57" s="24"/>
-      <c r="E57" s="30"/>
-      <c r="F57" s="24"/>
-      <c r="G57" s="24"/>
-      <c r="H57" s="24"/>
-      <c r="I57" s="24"/>
-      <c r="J57" s="24"/>
+      <c r="A57" s="6"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="23"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="6"/>
     </row>
     <row r="58" spans="1:10">
-      <c r="A58" s="24"/>
-      <c r="B58" s="24"/>
-      <c r="C58" s="24"/>
-      <c r="D58" s="24"/>
-      <c r="E58" s="30"/>
-      <c r="F58" s="24"/>
-      <c r="G58" s="24"/>
-      <c r="H58" s="24"/>
-      <c r="I58" s="24"/>
-      <c r="J58" s="24"/>
+      <c r="A58" s="6"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="23"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="6"/>
     </row>
     <row r="59" spans="1:10">
-      <c r="A59" s="24"/>
-      <c r="B59" s="24"/>
-      <c r="C59" s="24"/>
-      <c r="D59" s="24"/>
-      <c r="E59" s="30"/>
-      <c r="F59" s="24"/>
-      <c r="G59" s="24"/>
-      <c r="H59" s="24"/>
-      <c r="I59" s="24"/>
-      <c r="J59" s="24"/>
+      <c r="A59" s="6"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="23"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="6"/>
     </row>
     <row r="60" spans="1:10">
-      <c r="A60" s="24"/>
-      <c r="B60" s="24"/>
-      <c r="C60" s="24"/>
-      <c r="D60" s="24"/>
-      <c r="E60" s="30"/>
-      <c r="F60" s="24"/>
-      <c r="G60" s="24"/>
-      <c r="H60" s="24"/>
-      <c r="I60" s="24"/>
-      <c r="J60" s="24"/>
+      <c r="A60" s="6"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="23"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="6"/>
     </row>
     <row r="61" spans="1:10">
-      <c r="A61" s="24"/>
-      <c r="B61" s="24"/>
-      <c r="C61" s="24"/>
-      <c r="D61" s="24"/>
-      <c r="E61" s="30"/>
-      <c r="F61" s="24"/>
-      <c r="G61" s="24"/>
-      <c r="H61" s="24"/>
-      <c r="I61" s="24"/>
-      <c r="J61" s="24"/>
+      <c r="A61" s="6"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="23"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="6"/>
+      <c r="J61" s="6"/>
     </row>
     <row r="62" spans="1:10">
-      <c r="A62" s="24"/>
-      <c r="B62" s="24"/>
-      <c r="C62" s="24"/>
-      <c r="D62" s="24"/>
-      <c r="E62" s="30"/>
-      <c r="F62" s="24"/>
-      <c r="G62" s="24"/>
-      <c r="H62" s="24"/>
-      <c r="I62" s="24"/>
-      <c r="J62" s="24"/>
+      <c r="A62" s="6"/>
+      <c r="B62" s="6"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="23"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="6"/>
+      <c r="J62" s="6"/>
     </row>
     <row r="63" spans="1:10">
-      <c r="A63" s="24"/>
-      <c r="B63" s="24"/>
-      <c r="C63" s="24"/>
-      <c r="D63" s="24"/>
-      <c r="E63" s="30"/>
-      <c r="F63" s="24"/>
-      <c r="G63" s="24"/>
-      <c r="H63" s="24"/>
-      <c r="I63" s="24"/>
-      <c r="J63" s="24"/>
+      <c r="A63" s="6"/>
+      <c r="B63" s="6"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="23"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="6"/>
+      <c r="J63" s="6"/>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="24"/>
-      <c r="B64" s="24"/>
-      <c r="C64" s="24"/>
-      <c r="D64" s="24"/>
-      <c r="E64" s="30"/>
-      <c r="F64" s="24"/>
-      <c r="G64" s="24"/>
-      <c r="H64" s="24"/>
-      <c r="I64" s="24"/>
+      <c r="A64" s="6"/>
+      <c r="B64" s="6"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="23"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -2093,4 +2070,20 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>